--- a/file.xlsx
+++ b/file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\geoscan_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57332BF6-727D-41B3-9545-21D2190740FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED0CD56-DCDA-47D2-AE11-16FE91C14377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="348" windowWidth="17280" windowHeight="8880" xr2:uid="{97D582DB-4A03-4D2D-9BA2-93F8CB1B972A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{97D582DB-4A03-4D2D-9BA2-93F8CB1B972A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -522,7 +522,7 @@
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>1001</v>
+        <v>5789457</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>1002</v>
+        <v>5789458</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>1003</v>
+        <v>5789450</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
